--- a/setup/static/assets/modelos/sorteio_novo2.xlsx
+++ b/setup/static/assets/modelos/sorteio_novo2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drili\OneDrive\Área de Trabalho\Sorteio Novo\Django\Sorteio Novo (Django) - 2\setup\static\assets\modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drili\OneDrive\Área de Trabalho\Sorteio Novo\Django\Sorteio Novo (Django)\setup\static\assets\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F627D6-4036-45BF-BBD2-63B7FA56F763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81824D86-D859-4222-917A-92AC1FE9D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1155" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-40" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -236,21 +236,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -278,6 +263,131 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -286,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -306,19 +416,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -338,6 +445,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,182 +864,344 @@
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C30" s="10"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C31" s="10"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="10"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="10"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="10"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="10"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="10"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C37" s="10"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C38" s="10"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="10"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C40" s="10"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C41" s="10"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C42" s="10"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C43" s="10"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C44" s="10"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C45" s="10"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C46" s="10"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C47" s="10"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C48" s="10"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C49" s="10"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="10"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="45">
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/setup/static/assets/modelos/sorteio_novo2.xlsx
+++ b/setup/static/assets/modelos/sorteio_novo2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drili\OneDrive\Área de Trabalho\Sorteio Novo\Django\Sorteio Novo (Django)\setup\static\assets\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D86619-100A-4B7A-8A72-795CF6854B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33029ABE-ED87-4941-9E9B-62630EAE3360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>CONDOMÍNIO NOVA COLINA</t>
   </si>
   <si>
-    <t>VAGA LIVRE</t>
+    <t>VAGA DUPLA</t>
   </si>
   <si>
-    <t>VAGA DUPLA</t>
+    <t>VAGAS</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -215,7 +215,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -227,16 +227,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -245,7 +245,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -255,40 +255,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -298,19 +268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -327,21 +284,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -359,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -376,16 +318,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -395,39 +358,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -815,407 +745,506 @@
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C49:D49"/>
+  <mergeCells count="117">
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
